--- a/Paolo/FINAL/Bases Finales/Info_2022.xlsx
+++ b/Paolo/FINAL/Bases Finales/Info_2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Scripts\Factores\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAPTOP ACER\REPOSITORIO_GITHUB\OEFA_SMER\Paolo\Final\Bases Finales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BCC7FCD-42C7-4945-9C44-B39C2B69BB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F822227-7759-4F01-A4CB-9BF7C96BB18E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Base!$A$1:$C$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidado!$A$1:$T$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Consolidado!$A$1:$U$159</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Graduación!$A$1:$G$341</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Nuevos!$A$1:$C$1</definedName>
   </definedNames>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2374" uniqueCount="309">
   <si>
     <t>Correlativo</t>
   </si>
@@ -2042,11 +2042,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:T159"/>
+  <dimension ref="A1:U159"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1" sqref="V1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2061,9 +2061,10 @@
     <col min="14" max="15" width="14.36328125" bestFit="1" customWidth="1"/>
     <col min="16" max="19" width="13.36328125" customWidth="1"/>
     <col min="20" max="20" width="26.08984375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.90625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2124,8 +2125,11 @@
       <c r="T1" s="5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U1" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2152,8 +2156,11 @@
       <c r="T2" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U2" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2208,8 +2215,11 @@
       <c r="T3" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U3" s="3">
+        <v>22237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2270,8 +2280,11 @@
       <c r="T4" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U4" s="3">
+        <v>22238</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -2332,8 +2345,11 @@
       <c r="T5" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U5" s="3">
+        <v>22238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>2</v>
       </c>
@@ -2394,8 +2410,11 @@
       <c r="T6" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U6" s="3">
+        <v>22238</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -2456,8 +2475,11 @@
       <c r="T7" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U7" s="3">
+        <v>22238</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -2514,8 +2536,11 @@
       <c r="T8" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U8" s="3">
+        <v>22238</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -2570,8 +2595,11 @@
       <c r="T9" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U9" s="3">
+        <v>22239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>2</v>
       </c>
@@ -2626,8 +2654,11 @@
       <c r="T10" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U10" s="3">
+        <v>22240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -2682,8 +2713,11 @@
       <c r="T11" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U11" s="3">
+        <v>16220</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>4</v>
       </c>
@@ -2738,8 +2772,11 @@
       <c r="T12" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U12" s="3">
+        <v>23089</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>4</v>
       </c>
@@ -2798,8 +2835,11 @@
       <c r="T13" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U13" s="3">
+        <v>23090</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>4</v>
       </c>
@@ -2858,8 +2898,11 @@
       <c r="T14" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U14" s="3">
+        <v>23090</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -2918,8 +2961,11 @@
       <c r="T15" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U15" s="3">
+        <v>23090</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>4</v>
       </c>
@@ -2974,8 +3020,11 @@
       <c r="T16" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U16" s="3">
+        <v>23091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>4</v>
       </c>
@@ -3030,8 +3079,11 @@
       <c r="T17" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U17" s="3">
+        <v>23092</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>4</v>
       </c>
@@ -3086,8 +3138,11 @@
       <c r="T18" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U18" s="3">
+        <v>23093</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>4</v>
       </c>
@@ -3142,8 +3197,11 @@
       <c r="T19" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U19" s="3">
+        <v>23094</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>4</v>
       </c>
@@ -3202,8 +3260,11 @@
       <c r="T20" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U20" s="3">
+        <v>23095</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>4</v>
       </c>
@@ -3262,8 +3323,11 @@
       <c r="T21" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U21" s="3">
+        <v>23095</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>4</v>
       </c>
@@ -3322,8 +3386,11 @@
       <c r="T22" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U22" s="3">
+        <v>23095</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>4</v>
       </c>
@@ -3382,8 +3449,11 @@
       <c r="T23" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U23" s="3">
+        <v>23095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>4</v>
       </c>
@@ -3438,8 +3508,11 @@
       <c r="T24" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U24" s="3">
+        <v>23096</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>4</v>
       </c>
@@ -3494,8 +3567,11 @@
       <c r="T25" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U25" s="3">
+        <v>23097</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -3550,8 +3626,11 @@
       <c r="T26" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U26" s="3">
+        <v>23098</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>4</v>
       </c>
@@ -3610,8 +3689,11 @@
       <c r="T27" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U27" s="3">
+        <v>23099</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>4</v>
       </c>
@@ -3670,8 +3752,11 @@
       <c r="T28" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U28" s="3">
+        <v>23099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>4</v>
       </c>
@@ -3730,8 +3815,11 @@
       <c r="T29" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U29" s="3">
+        <v>23099</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>4</v>
       </c>
@@ -3790,8 +3878,11 @@
       <c r="T30" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U30" s="3">
+        <v>23099</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>5</v>
       </c>
@@ -3818,8 +3909,11 @@
       <c r="T31" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U31" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>6</v>
       </c>
@@ -3874,8 +3968,11 @@
       <c r="T32" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U32" s="3">
+        <v>22736</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>7</v>
       </c>
@@ -3902,8 +3999,11 @@
       <c r="T33" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U33" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>8</v>
       </c>
@@ -3930,8 +4030,11 @@
       <c r="T34" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U34" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>9</v>
       </c>
@@ -3958,8 +4061,11 @@
       <c r="T35" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U35" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>10</v>
       </c>
@@ -3986,8 +4092,11 @@
       <c r="T36" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U36" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>11</v>
       </c>
@@ -4042,8 +4151,11 @@
       <c r="T37" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U37" s="3">
+        <v>19365</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>12</v>
       </c>
@@ -4070,8 +4182,11 @@
       <c r="T38" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U38" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>13</v>
       </c>
@@ -4126,8 +4241,11 @@
       <c r="T39" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U39" s="3">
+        <v>19188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>14</v>
       </c>
@@ -4154,8 +4272,11 @@
       <c r="T40" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U40" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>15</v>
       </c>
@@ -4182,8 +4303,11 @@
       <c r="T41" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U41" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>16</v>
       </c>
@@ -4210,8 +4334,11 @@
       <c r="T42" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U42" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>17</v>
       </c>
@@ -4238,8 +4365,11 @@
       <c r="T43" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U43" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>18</v>
       </c>
@@ -4298,8 +4428,11 @@
       <c r="T44" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U44" s="3">
+        <v>20348</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>18</v>
       </c>
@@ -4358,8 +4491,11 @@
       <c r="T45" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U45" s="3">
+        <v>20348</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>18</v>
       </c>
@@ -4418,8 +4554,11 @@
       <c r="T46" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U46" s="3">
+        <v>20348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>18</v>
       </c>
@@ -4478,8 +4617,11 @@
       <c r="T47" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U47" s="3">
+        <v>20348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>19</v>
       </c>
@@ -4506,8 +4648,11 @@
       <c r="T48" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U48" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>20</v>
       </c>
@@ -4562,8 +4707,11 @@
       <c r="T49" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U49" s="3">
+        <v>22661</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>20</v>
       </c>
@@ -4618,8 +4766,11 @@
       <c r="T50" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U50" s="3">
+        <v>22662</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>20</v>
       </c>
@@ -4674,8 +4825,11 @@
       <c r="T51" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U51" s="3">
+        <v>22663</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>21</v>
       </c>
@@ -4702,8 +4856,11 @@
       <c r="T52" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U52" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>22</v>
       </c>
@@ -4758,8 +4915,11 @@
       <c r="T53" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U53" s="3">
+        <v>22521</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>23</v>
       </c>
@@ -4786,8 +4946,11 @@
       <c r="T54" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U54" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>24</v>
       </c>
@@ -4846,8 +5009,11 @@
       <c r="T55" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U55" s="3">
+        <v>20394</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>24</v>
       </c>
@@ -4906,8 +5072,11 @@
       <c r="T56" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U56" s="3">
+        <v>20394</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>24</v>
       </c>
@@ -4966,8 +5135,11 @@
       <c r="T57" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U57" s="3">
+        <v>20394</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>24</v>
       </c>
@@ -5026,8 +5198,11 @@
       <c r="T58" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U58" s="3">
+        <v>20394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>25</v>
       </c>
@@ -5082,8 +5257,11 @@
       <c r="T59" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U59" s="3">
+        <v>22500</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>25</v>
       </c>
@@ -5138,8 +5316,11 @@
       <c r="T60" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U60" s="3">
+        <v>22501</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>25</v>
       </c>
@@ -5194,8 +5375,11 @@
       <c r="T61" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U61" s="3">
+        <v>22502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>25</v>
       </c>
@@ -5250,8 +5434,11 @@
       <c r="T62" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U62" s="3">
+        <v>22503</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>25</v>
       </c>
@@ -5306,8 +5493,11 @@
       <c r="T63" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U63" s="3">
+        <v>22504</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>25</v>
       </c>
@@ -5362,8 +5552,11 @@
       <c r="T64" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U64" s="3">
+        <v>22505</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>25</v>
       </c>
@@ -5418,8 +5611,11 @@
       <c r="T65" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U65" s="3">
+        <v>22506</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>25</v>
       </c>
@@ -5474,8 +5670,11 @@
       <c r="T66" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U66" s="3">
+        <v>22507</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>25</v>
       </c>
@@ -5530,8 +5729,11 @@
       <c r="T67" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U67" s="3">
+        <v>22508</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>25</v>
       </c>
@@ -5586,8 +5788,11 @@
       <c r="T68" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U68" s="3">
+        <v>22509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>26</v>
       </c>
@@ -5642,8 +5847,11 @@
       <c r="T69" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U69" s="3">
+        <v>10208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>27</v>
       </c>
@@ -5698,8 +5906,11 @@
       <c r="T70" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U70" s="3">
+        <v>19839</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>28</v>
       </c>
@@ -5726,8 +5937,11 @@
       <c r="T71" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U71" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72" s="1">
         <v>29</v>
       </c>
@@ -5754,8 +5968,11 @@
       <c r="T72" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U72" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73" s="1">
         <v>30</v>
       </c>
@@ -5810,8 +6027,11 @@
       <c r="T73" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U73" s="3">
+        <v>20513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74" s="1">
         <v>30</v>
       </c>
@@ -5866,8 +6086,11 @@
       <c r="T74" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U74" s="3">
+        <v>20514</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75" s="1">
         <v>30</v>
       </c>
@@ -5922,8 +6145,11 @@
       <c r="T75" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U75" s="3">
+        <v>20515</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76" s="1">
         <v>30</v>
       </c>
@@ -5978,8 +6204,11 @@
       <c r="T76" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U76" s="3">
+        <v>20516</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77" s="1">
         <v>31</v>
       </c>
@@ -6034,8 +6263,11 @@
       <c r="T77" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U77" s="3">
+        <v>21021</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78" s="1">
         <v>31</v>
       </c>
@@ -6090,8 +6322,11 @@
       <c r="T78" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U78" s="3">
+        <v>21022</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79" s="1">
         <v>31</v>
       </c>
@@ -6146,8 +6381,11 @@
       <c r="T79" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U79" s="3">
+        <v>21023</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80" s="1">
         <v>31</v>
       </c>
@@ -6202,8 +6440,11 @@
       <c r="T80" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U80" s="3">
+        <v>21024</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81" s="1">
         <v>31</v>
       </c>
@@ -6258,8 +6499,11 @@
       <c r="T81" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U81" s="3">
+        <v>21025</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82" s="1">
         <v>31</v>
       </c>
@@ -6314,8 +6558,11 @@
       <c r="T82" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U82" s="3">
+        <v>21026</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>31</v>
       </c>
@@ -6370,8 +6617,11 @@
       <c r="T83" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U83" s="3">
+        <v>21027</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84" s="1">
         <v>32</v>
       </c>
@@ -6398,8 +6648,11 @@
       <c r="T84" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U84" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85" s="1">
         <v>33</v>
       </c>
@@ -6454,8 +6707,11 @@
       <c r="T85" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U85" s="3">
+        <v>21388</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86" s="1">
         <v>34</v>
       </c>
@@ -6510,8 +6766,11 @@
       <c r="T86" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U86" s="3">
+        <v>22126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87" s="1">
         <v>34</v>
       </c>
@@ -6566,8 +6825,11 @@
       <c r="T87" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U87" s="3">
+        <v>22127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88" s="1">
         <v>35</v>
       </c>
@@ -6594,8 +6856,11 @@
       <c r="T88" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U88" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89" s="1">
         <v>36</v>
       </c>
@@ -6654,8 +6919,11 @@
       <c r="T89" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U89" s="3">
+        <v>22916</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90" s="1">
         <v>36</v>
       </c>
@@ -6714,8 +6982,11 @@
       <c r="T90" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U90" s="3">
+        <v>22916</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91" s="1">
         <v>36</v>
       </c>
@@ -6770,8 +7041,11 @@
       <c r="T91" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U91" s="3">
+        <v>22917</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92" s="1">
         <v>37</v>
       </c>
@@ -6798,8 +7072,11 @@
       <c r="T92" s="4" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U92" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93" s="1">
         <v>38</v>
       </c>
@@ -6854,8 +7131,11 @@
       <c r="T93" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U93" s="3">
+        <v>20047</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94" s="1">
         <v>38</v>
       </c>
@@ -6910,8 +7190,11 @@
       <c r="T94" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U94" s="3">
+        <v>20048</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95" s="1">
         <v>38</v>
       </c>
@@ -6966,8 +7249,11 @@
       <c r="T95" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U95" s="3">
+        <v>20049</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96" s="1">
         <v>39</v>
       </c>
@@ -6994,8 +7280,11 @@
       <c r="T96" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U96" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97" s="1">
         <v>40</v>
       </c>
@@ -7054,8 +7343,11 @@
       <c r="T97" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U97" s="3">
+        <v>20278</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98" s="1">
         <v>40</v>
       </c>
@@ -7114,8 +7406,11 @@
       <c r="T98" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U98" s="3">
+        <v>20278</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99" s="1">
         <v>40</v>
       </c>
@@ -7174,8 +7469,11 @@
       <c r="T99" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U99" s="3">
+        <v>20279</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100" s="1">
         <v>40</v>
       </c>
@@ -7234,8 +7532,11 @@
       <c r="T100" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U100" s="3">
+        <v>20279</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101" s="1">
         <v>40</v>
       </c>
@@ -7290,8 +7591,11 @@
       <c r="T101" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U101" s="3">
+        <v>20280</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102" s="1">
         <v>41</v>
       </c>
@@ -7346,8 +7650,11 @@
       <c r="T102" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U102" s="3">
+        <v>20906</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103" s="1">
         <v>41</v>
       </c>
@@ -7402,8 +7709,11 @@
       <c r="T103" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U103" s="3">
+        <v>20907</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104" s="1">
         <v>41</v>
       </c>
@@ -7458,8 +7768,11 @@
       <c r="T104" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U104" s="3">
+        <v>20908</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105" s="1">
         <v>41</v>
       </c>
@@ -7514,8 +7827,11 @@
       <c r="T105" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U105" s="3">
+        <v>20909</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106" s="1">
         <v>41</v>
       </c>
@@ -7570,8 +7886,11 @@
       <c r="T106" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U106" s="3">
+        <v>20910</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107" s="1">
         <v>41</v>
       </c>
@@ -7626,8 +7945,11 @@
       <c r="T107" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U107" s="3">
+        <v>20911</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108" s="1">
         <v>41</v>
       </c>
@@ -7682,8 +8004,11 @@
       <c r="T108" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U108" s="3">
+        <v>20912</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109" s="1">
         <v>41</v>
       </c>
@@ -7738,8 +8063,11 @@
       <c r="T109" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U109" s="3">
+        <v>20913</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110" s="1">
         <v>41</v>
       </c>
@@ -7794,8 +8122,11 @@
       <c r="T110" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U110" s="3">
+        <v>20914</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111" s="1">
         <v>41</v>
       </c>
@@ -7850,8 +8181,11 @@
       <c r="T111" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U111" s="3">
+        <v>20915</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112" s="1">
         <v>41</v>
       </c>
@@ -7906,8 +8240,11 @@
       <c r="T112" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U112" s="3">
+        <v>20916</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113" s="1">
         <v>41</v>
       </c>
@@ -7962,8 +8299,11 @@
       <c r="T113" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U113" s="3">
+        <v>20917</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114" s="1">
         <v>41</v>
       </c>
@@ -8018,8 +8358,11 @@
       <c r="T114" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U114" s="3">
+        <v>20918</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>41</v>
       </c>
@@ -8074,8 +8417,11 @@
       <c r="T115" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U115" s="3">
+        <v>20919</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116" s="1">
         <v>41</v>
       </c>
@@ -8130,8 +8476,11 @@
       <c r="T116" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U116" s="3">
+        <v>20920</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117" s="1">
         <v>41</v>
       </c>
@@ -8186,8 +8535,11 @@
       <c r="T117" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U117" s="3">
+        <v>20921</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118" s="1">
         <v>41</v>
       </c>
@@ -8242,8 +8594,11 @@
       <c r="T118" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U118" s="3">
+        <v>20922</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119" s="1">
         <v>41</v>
       </c>
@@ -8298,8 +8653,11 @@
       <c r="T119" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U119" s="3">
+        <v>20923</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120" s="1">
         <v>41</v>
       </c>
@@ -8354,8 +8712,11 @@
       <c r="T120" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U120" s="3">
+        <v>20924</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121" s="1">
         <v>41</v>
       </c>
@@ -8410,8 +8771,11 @@
       <c r="T121" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U121" s="3">
+        <v>20925</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122" s="1">
         <v>41</v>
       </c>
@@ -8466,8 +8830,11 @@
       <c r="T122" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U122" s="3">
+        <v>20926</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>41</v>
       </c>
@@ -8522,8 +8889,11 @@
       <c r="T123" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U123" s="3">
+        <v>20927</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124" s="1">
         <v>41</v>
       </c>
@@ -8578,8 +8948,11 @@
       <c r="T124" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U124" s="3">
+        <v>20928</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125" s="1">
         <v>41</v>
       </c>
@@ -8634,8 +9007,11 @@
       <c r="T125" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U125" s="3">
+        <v>20929</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126" s="1">
         <v>41</v>
       </c>
@@ -8690,8 +9066,11 @@
       <c r="T126" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U126" s="3">
+        <v>20930</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127" s="1">
         <v>41</v>
       </c>
@@ -8746,8 +9125,11 @@
       <c r="T127" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U127" s="3">
+        <v>20931</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128" s="1">
         <v>41</v>
       </c>
@@ -8806,8 +9188,11 @@
       <c r="T128" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U128" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129" s="1">
         <v>41</v>
       </c>
@@ -8866,8 +9251,11 @@
       <c r="T129" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U129" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130" s="1">
         <v>41</v>
       </c>
@@ -8926,8 +9314,11 @@
       <c r="T130" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U130" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>41</v>
       </c>
@@ -8986,8 +9377,11 @@
       <c r="T131" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U131" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132" s="1">
         <v>41</v>
       </c>
@@ -9046,8 +9440,11 @@
       <c r="T132" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U132" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133" s="1">
         <v>41</v>
       </c>
@@ -9106,8 +9503,11 @@
       <c r="T133" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U133" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134" s="1">
         <v>41</v>
       </c>
@@ -9166,8 +9566,11 @@
       <c r="T134" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U134" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135" s="1">
         <v>41</v>
       </c>
@@ -9226,8 +9629,11 @@
       <c r="T135" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U135" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136" s="1">
         <v>41</v>
       </c>
@@ -9286,8 +9692,11 @@
       <c r="T136" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U136" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137" s="1">
         <v>41</v>
       </c>
@@ -9346,8 +9755,11 @@
       <c r="T137" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U137" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138" s="1">
         <v>41</v>
       </c>
@@ -9406,8 +9818,11 @@
       <c r="T138" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U138" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139" s="1">
         <v>41</v>
       </c>
@@ -9466,8 +9881,11 @@
       <c r="T139" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U139" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140" s="1">
         <v>41</v>
       </c>
@@ -9526,8 +9944,11 @@
       <c r="T140" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U140" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141" s="1">
         <v>41</v>
       </c>
@@ -9586,8 +10007,11 @@
       <c r="T141" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U141" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142" s="1">
         <v>41</v>
       </c>
@@ -9646,8 +10070,11 @@
       <c r="T142" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U142" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143" s="1">
         <v>41</v>
       </c>
@@ -9706,8 +10133,11 @@
       <c r="T143" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U143" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144" s="1">
         <v>41</v>
       </c>
@@ -9766,8 +10196,11 @@
       <c r="T144" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U144" s="3">
+        <v>20932</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145" s="1">
         <v>41</v>
       </c>
@@ -9822,8 +10255,11 @@
       <c r="T145" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U145" s="3">
+        <v>20933</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146" s="1">
         <v>41</v>
       </c>
@@ -9878,8 +10314,11 @@
       <c r="T146" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U146" s="3">
+        <v>20934</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147" s="1">
         <v>41</v>
       </c>
@@ -9938,8 +10377,11 @@
       <c r="T147" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U147" s="3">
+        <v>20935</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148" s="1">
         <v>41</v>
       </c>
@@ -9998,8 +10440,11 @@
       <c r="T148" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U148" s="3">
+        <v>20935</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149" s="1">
         <v>41</v>
       </c>
@@ -10058,8 +10503,11 @@
       <c r="T149" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U149" s="3">
+        <v>20935</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150" s="1">
         <v>41</v>
       </c>
@@ -10118,8 +10566,11 @@
       <c r="T150" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U150" s="3">
+        <v>20936</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151" s="1">
         <v>41</v>
       </c>
@@ -10178,8 +10629,11 @@
       <c r="T151" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U151" s="3">
+        <v>20936</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152" s="1">
         <v>41</v>
       </c>
@@ -10238,8 +10692,11 @@
       <c r="T152" s="4" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U152" s="3">
+        <v>20936</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153" s="1">
         <v>42</v>
       </c>
@@ -10266,8 +10723,11 @@
       <c r="T153" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U153" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154" s="1">
         <v>43</v>
       </c>
@@ -10294,8 +10754,11 @@
       <c r="T154" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U154" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155" s="1">
         <v>44</v>
       </c>
@@ -10322,8 +10785,11 @@
       <c r="T155" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U155" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156" s="1">
         <v>45</v>
       </c>
@@ -10350,8 +10816,11 @@
       <c r="T156" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U156" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157" s="1">
         <v>46</v>
       </c>
@@ -10378,8 +10847,11 @@
       <c r="T157" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U157" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158" s="1">
         <v>47</v>
       </c>
@@ -10406,8 +10878,11 @@
       <c r="T158" s="4" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.35">
+      <c r="U158" s="3" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159" s="1">
         <v>48</v>
       </c>
@@ -10462,9 +10937,12 @@
       <c r="T159" s="4" t="s">
         <v>307</v>
       </c>
+      <c r="U159" s="3">
+        <v>22722</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T159" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
+  <autoFilter ref="A1:U159" xr:uid="{00000000-0001-0000-0100-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
